--- a/create/salary.xlsx
+++ b/create/salary.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Бензин" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,8 +432,10 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -490,6 +493,16 @@
           <t>Транспортные, рубли</t>
         </is>
       </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>Бензин, литры</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Бензин, рубли</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +531,12 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -546,6 +565,12 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -574,6 +599,12 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -602,6 +633,12 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +667,12 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -658,6 +701,12 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -686,6 +735,12 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -714,6 +769,12 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2514.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -742,6 +803,12 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>91.88000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5273.91</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -770,6 +837,12 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -798,6 +871,12 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -826,6 +905,12 @@
       <c r="H17" t="n">
         <v>5600</v>
       </c>
+      <c r="I17" t="n">
+        <v>148.44</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9290.860000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -893,6 +978,616 @@
       </c>
       <c r="B27" t="n">
         <v>108.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Адрес</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Услуга</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Операция</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Борисов Д.Б.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-13 09:17:33</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1262.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-26 14:10:31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36724 Россия, Воронежская область, г. Воронеж, ул. Остужева, 37 (район Остужевского кольца)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1251.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="1" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2514.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Кобяков Е.С.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-09-07 09:59:45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ААЗС ЛУКОЙЛ 36721 Россия, Воронежская область, г. Воронеж, ул. Хользунова, 120</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Аи-92 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>873.63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:58:16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Аи-92 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="G10" t="n">
+        <v>884.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-09-13 09:40:59</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Аи-92 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1449.92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-09-30 11:19:46</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Аи-92 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2065.83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="1" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>5273.91</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Кузнецова И.А.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-09-03 16:49:28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36730 Россия, Воронежская область, Рамонский р-он, с. Чертовицы, ул. Мира, 1, М-4 «Дон», 495+700 км, слева</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3151.93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-09-10 21:05:58</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3169.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-09-19 19:22:05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36730 Россия, Воронежская область, Рамонский р-он, с. Чертовицы, ул. Мира, 1, М-4 «Дон», 495+700 км, слева</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3122.46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="1" t="n">
+        <v>150.71</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>9443.950000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Лейчинский Р.В.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:23:03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2726.42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-09-11 11:20:01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 48767 Россия, Липецкая область, Хлевенский р-он, М-4 «Дон», 449 км, слева</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1443.83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="1" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>4170.25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Мурашов Д.А.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-09-06 18:40:37</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3150.78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-09-19 21:36:22</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3160.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-09-27 10:07:43</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2979.28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="1" t="n">
+        <v>148.44</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>9290.860000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Шугуров А.Е.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-09-05 18:26:57</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ААЗС ЛУКОЙЛ 36721 Россия, Воронежская область, г. Воронеж, ул. Хользунова, 120</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ЭКТО-100</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3021.12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-09-08 16:17:36</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ЭКТО-100</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>40.66</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3188.96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-09-27 14:42:35</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ЭКТО-100</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3626.53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="n">
+        <v>124.23</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>9836.610000000001</v>
       </c>
     </row>
   </sheetData>

--- a/create/salary.xlsx
+++ b/create/salary.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расчет часов и расходов" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Бензин" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,13 +46,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -418,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,15 +437,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -452,463 +463,504 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Удаленка, часы</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Удаленка, рубли</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Дежурство, дни</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Дежурство, рубли</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Внеурочное, часы</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Внеурочное, рубли</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Транспортные, рубли</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Транспортные на руки, рубли</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Бензин, литры</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>Бензин, рубли</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Токарев Алексей Александрович</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>12.9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>3500</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Обухов Роман Николаевич </t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>875</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Бойченко Сергей Васильевич</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>38.7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>2700</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>875</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Агапов Данил Альвинович</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>17.9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>1250</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>1925</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Романов Александр Владимирович</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>97.8</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>6840</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Чернышов Артем Сергеевич</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="3" t="n">
         <v>2170</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Киселев Денис Витальевич</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="3" t="n">
         <v>730</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Борисов Денис Борисович</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="3" t="n">
         <v>30.4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="3" t="n">
         <v>2120</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="3" t="n">
         <v>8960</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
         <v>40.17</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" s="3" t="n">
         <v>2514.24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Кобяков Евгений Станиславович</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>770</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
         <v>91.88000000000001</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" s="3" t="n">
         <v>5273.91</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Чирков Алексей Александрович</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>26.7</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>1860</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Кудаев Евгений Геннадьевич</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="3" t="n">
         <v>4480</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Мурашов Дмитрий Алексеевич</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="3" t="n">
         <v>19.3</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="3" t="n">
         <v>1350</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="3" t="n">
         <v>5600</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="3" t="n">
+        <v>4480</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <v>148.44</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" s="3" t="n">
         <v>9290.860000000001</v>
       </c>
     </row>
@@ -991,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:G32"/>
+  <dimension ref="A3:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,6 +1642,14 @@
         <v>9836.610000000001</v>
       </c>
     </row>
+    <row r="34">
+      <c r="F34" s="1" t="n">
+        <v>622.27</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>40529.81999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/create/salary.xlsx
+++ b/create/salary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:K27"/>
+  <dimension ref="A3:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>09.2024</t>
+          <t>10.2024</t>
         </is>
       </c>
     </row>
@@ -523,26 +523,26 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Токарев Алексей Александрович</t>
+          <t>Агапов Данил Альвинович</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>12.9</v>
+        <v>25.3</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>900</v>
+        <v>1770</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="n">
         <v>0</v>
@@ -560,14 +560,14 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обухов Роман Николаевич </t>
+          <t>Бойченко Сергей Васильевич</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>0</v>
@@ -597,26 +597,26 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Бойченко Сергей Васильевич</t>
+          <t>Борисов Денис Борисович</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>38.7</v>
+        <v>15.5</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2700</v>
+        <v>1080</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>875</v>
+        <v>8750</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>0</v>
@@ -625,35 +625,35 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0</v>
+        <v>125.98</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>0</v>
+        <v>7861.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Агапов Данил Альвинович</t>
+          <t>Дементьев Павел</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>0</v>
@@ -671,26 +671,26 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Романов Александр Владимирович</t>
+          <t>Киселев Денис Витальевич</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>97.8</v>
+        <v>15.6</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>6840</v>
+        <v>1090</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>0</v>
@@ -708,14 +708,14 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Чернышов Артем Сергеевич</t>
+          <t>Кобяков Евгений Станиславович</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2170</v>
+        <v>700</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>7</v>
@@ -724,10 +724,10 @@
         <v>1000</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>0</v>
@@ -736,29 +736,29 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0</v>
+        <v>90.84</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0</v>
+        <v>5660.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Киселев Денис Витальевич</t>
+          <t>Кудаев Евгений Геннадьевич</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>10.5</v>
+        <v>74.5</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>730</v>
+        <v>5210</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>0</v>
@@ -782,51 +782,51 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Борисов Денис Борисович</t>
+          <t>Мурашов Дмитрий Алексеевич</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>30.4</v>
+        <v>16.3</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2120</v>
+        <v>1140</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>8960</v>
+        <v>17850</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0</v>
+        <v>4480</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>40.17</v>
+        <v>91.61</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>2514.24</v>
+        <v>5711.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Кобяков Евгений Станиславович</t>
+          <t xml:space="preserve">Обухов Роман Николаевич </t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0</v>
@@ -847,23 +847,23 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>91.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>5273.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Чирков Алексей Александрович</t>
+          <t>Романов Александр Владимирович</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>26.7</v>
+        <v>102.7</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1860</v>
+        <v>7190</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>7</v>
@@ -893,14 +893,14 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Кудаев Евгений Геннадьевич</t>
+          <t>Токарев Алексей Александрович</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>64</v>
+        <v>11.5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>4480</v>
+        <v>800</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>0</v>
@@ -930,106 +930,153 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Мурашов Дмитрий Алексеевич</t>
+          <t>Чернышов Артем Сергеевич</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>19.3</v>
+        <v>3.5</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>4480</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>148.44</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>9290.860000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1C</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Чирков Алексей Александрович</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>5480</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Часы</t>
         </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Некрасов Андрей</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>22.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Некрасов Андрей</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Губин Игорь Алексеевич</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>102.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Веб</t>
-        </is>
+      <c r="B23" t="n">
+        <v>119.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Веб</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Часы</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Мезин Сергей Валериевич</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>108.2</v>
+      <c r="B28" t="n">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Шубин Данил</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:G34"/>
+  <dimension ref="A3:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1143,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-09-13 09:17:33</t>
+          <t>2024-10-11 10:42:08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1115,21 +1162,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20.17</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>1262.44</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-09-26 14:10:31</t>
+          <t>2024-10-11 10:42:08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>АЗС ЛУКОЙЛ 36724 Россия, Воронежская область, г. Воронеж, ул. Остужева, 37 (район Остужевского кольца)</t>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1139,43 +1186,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Дебет</t>
+          <t>Возврат</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:04:29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2080.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-10-22 09:18:49</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
-        <v>1251.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" s="1" t="n">
-        <v>40.17</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2514.24</v>
+      <c r="G8" t="n">
+        <v>1245.6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Кобяков Е.С.</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-09-07 09:59:45</t>
+          <t>2024-10-28 06:19:17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ААЗС ЛУКОЙЛ 36721 Россия, Воронежская область, г. Воронеж, ул. Хользунова, 120</t>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Аи-92 ЭКТО</t>
+          <t>Аи-95 ЭКТО</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1184,26 +1274,26 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15.22</v>
+        <v>19.58</v>
       </c>
       <c r="G9" t="n">
-        <v>873.63</v>
+        <v>1221.6</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-09-10 18:58:16</t>
+          <t>2024-10-28 09:52:38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+          <t>АЗС ЛУКОЙЛ 50422 Россия, Московская область, Каширский р-он, д. Умрышенка, М-4 «Дон», 117 км, слева (район развязки трасс М-4 и Р-22)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Аи-92 ЭКТО</t>
+          <t>Аи-95 ЭКТО</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1212,215 +1302,215 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15.41</v>
+        <v>33.01</v>
       </c>
       <c r="G10" t="n">
-        <v>884.53</v>
+        <v>2069.4</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-09-13 09:40:59</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" s="1" t="n">
+        <v>125.98</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>7861.73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Кобяков Е.С.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-10-05 08:36:10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ААЗС ЛУКОЙЛ 36721 Россия, Воронежская область, г. Воронеж, ул. Хользунова, 120</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1853.45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-10-10 09:37:11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36709 Россия, Воронежская область, Новоусманский р-он, с. Нечаевка, М-4 «Дон», 522 км, справа</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2022.85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-10-26 11:54:26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36708 Россия, Воронежская область, Семилукский р-он, Р-298, 213 км, слева (перед въездом в г. Воронеж)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1784.35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="n">
+        <v>90.84</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>5660.65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Кузнецова И.А.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-10-01 13:21:46</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36704 Россия, Воронежская область, г. Воронеж, ул. Героев Сибиряков, 20А</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>51.86</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3229.84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:15:31</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Аи-92 ЭКТО</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>25.26</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1449.92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2024-09-30 11:19:46</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Аи-92 ЭКТО</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>35.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2065.83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" s="1" t="n">
-        <v>91.88</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>5273.91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Кузнецова И.А.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024-09-03 16:49:28</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>АЗС ЛУКОЙЛ 36730 Россия, Воронежская область, Рамонский р-он, с. Чертовицы, ул. Мира, 1, М-4 «Дон», 495+700 км, слева</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Аи-95 ЭКТО</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>50.27</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3151.93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2024-09-10 21:05:58</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3137.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-10-19 12:53:13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36719 Россия, Воронежская область, Рамонский р-он, п. Солнечный, ул. Парковая, 7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Аи-95 ЭКТО</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3169.56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2024-09-19 19:22:05</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>АЗС ЛУКОЙЛ 36730 Россия, Воронежская область, Рамонский р-он, с. Чертовицы, ул. Мира, 1, М-4 «Дон», 495+700 км, слева</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Аи-95 ЭКТО</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3122.46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="1" t="n">
-        <v>150.71</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>9443.950000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Лейчинский Р.В.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2024-09-03 15:23:03</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Аи-95 ЭКТО</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Дебет</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43.56</v>
+        <v>43.47</v>
       </c>
       <c r="G20" t="n">
-        <v>2726.42</v>
+        <v>2707.31</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-09-11 11:20:01</t>
+          <t>2024-10-29 09:30:44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>АЗС ЛУКОЙЛ 48767 Россия, Липецкая область, Хлевенский р-он, М-4 «Дон», 449 км, слева</t>
+          <t>АЗС ЛУКОЙЛ 36730 Россия, Воронежская область, Рамонский р-он, с. Чертовицы, ул. Мира, 1, М-4 «Дон», 495+700 км, слева</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1434,34 +1524,34 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>23.28</v>
+        <v>49.47</v>
       </c>
       <c r="G21" t="n">
-        <v>1443.83</v>
+        <v>3091.88</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="n">
-        <v>66.84</v>
+        <v>195.17</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>4170.25</v>
+        <v>12166.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Мурашов Д.А.</t>
+          <t>Лейчинский Р.В.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-09-06 18:40:37</t>
+          <t>2024-10-01 18:27:44</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1475,21 +1565,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50.34</v>
+        <v>40.41</v>
       </c>
       <c r="G24" t="n">
-        <v>3150.78</v>
+        <v>2516.73</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-09-19 21:36:22</t>
+          <t>2024-10-14 09:34:34</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>АЗС ЛУКОЙЛ 36726 Россия, Воронежская область, г. Воронеж, ул. Степана Солодовникова, 6</t>
+          <t>АЗС Shell Острогожская Россия, Воронежская область, г. Воронеж, ул. Острогожская, 103</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1503,26 +1593,26 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50.5</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.8</v>
+        <v>2491.2</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-09-27 10:07:43</t>
+          <t>2024-10-28 07:52:25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>АЗС ЛУКОЙЛ 36727 Россия, Воронежская область, г. Воронеж, ул. Грамши, 2Г</t>
+          <t>АЗС Shell Острогожская Россия, Воронежская область, г. Воронеж, ул. Острогожская, 103</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Аи-95 ЭКТО</t>
+          <t>Аи-95</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1531,39 +1621,39 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>47.6</v>
+        <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>2979.28</v>
+        <v>2178.05</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="n">
-        <v>148.44</v>
+        <v>115.41</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>9290.860000000001</v>
+        <v>7185.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Шугуров А.Е.</t>
+          <t>Мурашов Д.А.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-09-05 18:26:57</t>
+          <t>2024-10-10 16:48:34</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ААЗС ЛУКОЙЛ 36721 Россия, Воронежская область, г. Воронеж, ул. Хользунова, 120</t>
+          <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ЭКТО-100</t>
+          <t>Аи-95 ЭКТО</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1572,16 +1662,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>38.52</v>
+        <v>39.41</v>
       </c>
       <c r="G29" t="n">
-        <v>3021.12</v>
+        <v>2454.45</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-09-08 16:17:36</t>
+          <t>2024-10-27 21:00:48</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1591,63 +1681,145 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3256.76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="n">
+        <v>91.61</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>5711.21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Шугуров А.Е.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-10-08 17:29:15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36730 Россия, Воронежская область, Рамонский р-он, с. Чертовицы, ул. Мира, 1, М-4 «Дон», 495+700 км, слева</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>ЭКТО-100</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>40.66</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3188.96</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2024-09-27 14:42:35</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2533.19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-10-22 19:03:34</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>АЗС ЛУКОЙЛ 36719 Россия, Воронежская область, Рамонский р-он, п. Солнечный, ул. Парковая, 7</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ЭКТО-100</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3849.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>6383.07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Шугурова Н.И.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-10-06 14:56:05</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>АЗС ЛУКОЙЛ 36718 Россия, Воронежская область, г. Воронеж, ул. Ленинградская, 29В</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ЭКТО-100</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Дебет</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3626.53</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" s="1" t="n">
-        <v>124.23</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>9836.610000000001</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" s="1" t="n">
-        <v>622.27</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>40529.81999999999</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Аи-95 ЭКТО</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Дебет</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3006.88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>3006.88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="n">
+        <v>745.54</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>47975.59</v>
       </c>
     </row>
   </sheetData>
